--- a/Firmware/Power Modes.xlsx
+++ b/Firmware/Power Modes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Veridian-Heliograph\Firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB06506-77AC-4D01-A8E1-91AE545FDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8724B5-42BE-4C9F-8B9C-6FAF0C581138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -242,10 +242,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -713,7 +713,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="5">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -854,8 +854,8 @@
         <v>3</v>
       </c>
       <c r="L7" s="7">
-        <f>((C7+K7+I7+G7+E7)*$B$3)/1000</f>
-        <v>63.426000000000002</v>
+        <f t="shared" ref="L7:L13" si="1">((C7+K7+I7+G7+E7)*$B$3)/1000</f>
+        <v>38.676000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I8:I10" si="1">2+13+6+7.7+2.5</f>
+        <f t="shared" ref="I8:I10" si="2">2+13+6+7.7+2.5</f>
         <v>31.2</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="7">
-        <f>((C8+K8+I8+G8+E8)*$B$3)/1000</f>
+        <f t="shared" si="1"/>
         <v>16.761800000000001</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="5">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.2</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -936,8 +936,8 @@
         <v>3</v>
       </c>
       <c r="L9" s="7">
-        <f>((C9+K9+I9+G9+E9)*$B$3)/1000</f>
-        <v>14.011799999999999</v>
+        <f t="shared" si="1"/>
+        <v>11.261799999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.2</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -977,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="7">
-        <f>((C10+K10+I10+G10+E10)*$B$3)/1000</f>
+        <f t="shared" si="1"/>
         <v>3.0118</v>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="7">
-        <f>((C11+K11+I11+G11+E11)*$B$3)/1000</f>
+        <f t="shared" si="1"/>
         <v>2.9760500000000003</v>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" ref="I12:I13" si="2">2+6+7.7+2.5</f>
+        <f t="shared" ref="I12:I13" si="3">2+6+7.7+2.5</f>
         <v>18.2</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="7">
-        <f>((C12+K12+I12+G12+E12)*$B$3)/1000</f>
+        <f t="shared" si="1"/>
         <v>1.4965500000000003</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.2</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -1100,7 +1100,7 @@
         <v>0.5</v>
       </c>
       <c r="L13" s="10">
-        <f>((C13+K13+I13+G13+E13)*$B$3)/1000</f>
+        <f t="shared" si="1"/>
         <v>0.15592500000000001</v>
       </c>
     </row>
